--- a/build/web/file/product_key_template.xlsx
+++ b/build/web/file/product_key_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\web\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\build\web\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A809B-090D-41FA-A62F-C0C8DCA6ECAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61107367-4AC4-494B-9AEC-CC37EE51132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
+    <workbookView xWindow="4035" yWindow="2625" windowWidth="21600" windowHeight="12765" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
   <sheets>
     <sheet name="Iter1" sheetId="16" r:id="rId1"/>

--- a/build/web/file/product_key_template.xlsx
+++ b/build/web/file/product_key_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\build\web\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal work\FPTU\SWP\SWP391.E-BL5_Group2\web\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61107367-4AC4-494B-9AEC-CC37EE51132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A809B-090D-41FA-A62F-C0C8DCA6ECAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2625" windowWidth="21600" windowHeight="12765" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
   <sheets>
     <sheet name="Iter1" sheetId="16" r:id="rId1"/>
